--- a/docs/StructureDefinition-KenyaDiagnosticServiceRequest.xlsx
+++ b/docs/StructureDefinition-KenyaDiagnosticServiceRequest.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="562">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-16T14:48:05+03:00</t>
+    <t>2024-11-27T16:57:00+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -429,33 +429,54 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:rejectionReason</t>
+  </si>
+  <si>
+    <t>rejectionReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.nphl.go.ke/StructureDefinition/rejection-reasons-for-labOrder}
+</t>
+  </si>
+  <si>
+    <t>Extension for rejection reasons for lab orders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ServiceRequest.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -463,6 +484,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -522,17 +546,13 @@
     <t>ServiceRequest.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -829,7 +849,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1156,7 +1176,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](valueset-diagnostic-requests.html).</t>
+    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](http://hl7.org/fhir/R4/valueset-diagnostic-requests.html).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
@@ -1544,7 +1564,7 @@
     <t>The reason for the service request. This is a code from a value set defined in this IG e.g. JustificationForLabOrderVS.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>http://fhir.nphl.go.ke/ValueSet/JustificationForLabOrderVS</t>
@@ -1572,7 +1592,7 @@
     <t>The reason for the service request if the reason is not coded in the value set but one of the following resources: Condition, Observation, DiagnosticReport, DocumentReference.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -1648,7 +1668,7 @@
     <t>The specimen for the service request. This is a reference to a KenyaSpecimen resource.</t>
   </si>
   <si>
-    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](specimen.html) resource points to the ServiceRequest.</t>
+    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](http://hl7.org/fhir/R4/specimen.html) resource points to the ServiceRequest.</t>
   </si>
   <si>
     <t>SPM</t>
@@ -2058,7 +2078,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO73"/>
+  <dimension ref="A1:AO74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2069,7 +2089,7 @@
   <cols>
     <col min="1" max="1" width="38.5546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.5546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.73046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.1953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.1015625" customWidth="true" bestFit="true"/>
@@ -2091,7 +2111,7 @@
     <col min="22" max="22" width="14.80078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.01953125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="15.8125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="240.0078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="255.0" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="59.64453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.28125" customWidth="true" bestFit="true"/>
@@ -3058,7 +3078,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3077,17 +3097,15 @@
         <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>19</v>
@@ -3124,16 +3142,14 @@
         <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -3157,7 +3173,7 @@
         <v>19</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>19</v>
@@ -3171,43 +3187,41 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
         <v>143</v>
       </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>19</v>
       </c>
@@ -3255,7 +3269,7 @@
         <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -3264,7 +3278,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -3276,7 +3290,7 @@
         <v>19</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>19</v>
@@ -3294,26 +3308,26 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I11" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>147</v>
@@ -3324,7 +3338,9 @@
       <c r="N11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="O11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>19</v>
       </c>
@@ -3372,7 +3388,7 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3384,30 +3400,30 @@
         <v>19</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>154</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3415,30 +3431,32 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>19</v>
@@ -3487,53 +3505,53 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AN12" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AO12" t="s" s="2">
-        <v>19</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>19</v>
@@ -3545,17 +3563,15 @@
         <v>19</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>19</v>
@@ -3592,16 +3608,16 @@
         <v>19</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>166</v>
@@ -3610,13 +3626,13 @@
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>19</v>
@@ -3625,7 +3641,7 @@
         <v>19</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>19</v>
@@ -3636,46 +3652,44 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>19</v>
       </c>
@@ -3699,52 +3713,52 @@
         <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>19</v>
@@ -3755,10 +3769,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3775,25 +3789,25 @@
         <v>19</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>19</v>
@@ -3818,13 +3832,13 @@
         <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>19</v>
@@ -3842,7 +3856,7 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3860,10 +3874,10 @@
         <v>19</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>19</v>
@@ -3874,10 +3888,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3885,13 +3899,13 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>19</v>
@@ -3900,19 +3914,19 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>19</v>
@@ -3925,7 +3939,7 @@
         <v>19</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>19</v>
@@ -3937,13 +3951,13 @@
         <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>19</v>
@@ -3961,7 +3975,7 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3979,10 +3993,10 @@
         <v>19</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>19</v>
@@ -3993,10 +4007,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4019,18 +4033,20 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>19</v>
       </c>
@@ -4042,7 +4058,7 @@
         <v>19</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>19</v>
@@ -4078,7 +4094,7 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4096,10 +4112,10 @@
         <v>19</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>19</v>
@@ -4110,10 +4126,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4121,13 +4137,13 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>19</v>
@@ -4136,15 +4152,17 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>19</v>
@@ -4157,7 +4175,7 @@
         <v>19</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>19</v>
@@ -4193,7 +4211,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4211,10 +4229,10 @@
         <v>19</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>19</v>
@@ -4225,10 +4243,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4251,17 +4269,15 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>216</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>19</v>
@@ -4310,7 +4326,7 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4328,10 +4344,10 @@
         <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>19</v>
@@ -4342,10 +4358,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4356,7 +4372,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>19</v>
@@ -4368,16 +4384,16 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4427,13 +4443,13 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>19</v>
@@ -4442,13 +4458,13 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>19</v>
@@ -4459,10 +4475,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4485,16 +4501,16 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4544,7 +4560,7 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4559,13 +4575,13 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>19</v>
@@ -4576,14 +4592,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4602,15 +4618,17 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>19</v>
@@ -4659,7 +4677,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4677,10 +4695,10 @@
         <v>238</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>19</v>
@@ -4691,14 +4709,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4717,13 +4735,13 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4774,7 +4792,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4789,13 +4807,13 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>19</v>
@@ -4806,21 +4824,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>19</v>
@@ -4832,20 +4850,16 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>146</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>254</v>
-      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>19</v>
       </c>
@@ -4893,13 +4907,13 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>19</v>
@@ -4908,13 +4922,13 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>19</v>
@@ -4925,44 +4939,46 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="N25" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>19</v>
       </c>
@@ -4986,13 +5002,13 @@
         <v>19</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>262</v>
+        <v>19</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>263</v>
+        <v>19</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>19</v>
@@ -5010,10 +5026,10 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>88</v>
@@ -5025,27 +5041,27 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>268</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5071,13 +5087,13 @@
         <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5103,13 +5119,13 @@
         <v>19</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>19</v>
@@ -5127,7 +5143,7 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>88</v>
@@ -5142,27 +5158,27 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>131</v>
+        <v>271</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>19</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5170,35 +5186,33 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>19</v>
       </c>
@@ -5222,11 +5236,13 @@
         <v>19</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>19</v>
@@ -5244,13 +5260,13 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>19</v>
@@ -5259,16 +5275,16 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>19</v>
+        <v>281</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>284</v>
+        <v>131</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>19</v>
@@ -5276,10 +5292,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5299,19 +5315,23 @@
         <v>19</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>157</v>
+        <v>285</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>19</v>
       </c>
@@ -5335,13 +5355,11 @@
         <v>19</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>19</v>
+        <v>289</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>19</v>
@@ -5359,31 +5377,31 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>159</v>
+        <v>284</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>160</v>
+        <v>291</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>19</v>
@@ -5391,21 +5409,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>19</v>
@@ -5417,17 +5435,15 @@
         <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>19</v>
@@ -5464,16 +5480,16 @@
         <v>19</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>166</v>
@@ -5482,13 +5498,13 @@
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>19</v>
@@ -5497,7 +5513,7 @@
         <v>19</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>19</v>
@@ -5508,14 +5524,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5531,23 +5547,21 @@
         <v>19</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>290</v>
+        <v>169</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>291</v>
+        <v>170</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>19</v>
       </c>
@@ -5583,19 +5597,19 @@
         <v>19</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>294</v>
+        <v>172</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5607,16 +5621,16 @@
         <v>19</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>295</v>
+        <v>19</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>296</v>
+        <v>167</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>19</v>
@@ -5627,10 +5641,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5641,7 +5655,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>19</v>
@@ -5650,19 +5664,23 @@
         <v>19</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>156</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>157</v>
+        <v>296</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>19</v>
       </c>
@@ -5710,28 +5728,28 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>159</v>
+        <v>300</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>19</v>
+        <v>301</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>160</v>
+        <v>302</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>19</v>
@@ -5742,21 +5760,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>19</v>
@@ -5768,17 +5786,15 @@
         <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>19</v>
@@ -5815,16 +5831,16 @@
         <v>19</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>166</v>
@@ -5833,13 +5849,13 @@
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>19</v>
@@ -5848,7 +5864,7 @@
         <v>19</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>19</v>
@@ -5859,46 +5875,44 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>169</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
+        <v>170</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>19</v>
       </c>
@@ -5934,40 +5948,40 @@
         <v>19</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>304</v>
+        <v>172</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>305</v>
+        <v>19</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>306</v>
+        <v>167</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>19</v>
@@ -5978,10 +5992,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5989,13 +6003,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>19</v>
@@ -6004,18 +6018,20 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>19</v>
       </c>
@@ -6063,7 +6079,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6081,10 +6097,10 @@
         <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>19</v>
@@ -6095,10 +6111,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6106,13 +6122,13 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>19</v>
@@ -6121,18 +6137,18 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>317</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>19</v>
       </c>
@@ -6180,7 +6196,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6198,10 +6214,10 @@
         <v>19</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>19</v>
@@ -6212,10 +6228,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6238,17 +6254,17 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>19</v>
@@ -6297,7 +6313,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6315,10 +6331,10 @@
         <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>19</v>
@@ -6329,10 +6345,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6340,13 +6356,13 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>19</v>
@@ -6355,19 +6371,17 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>19</v>
@@ -6416,7 +6430,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6434,10 +6448,10 @@
         <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>19</v>
@@ -6448,10 +6462,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6474,19 +6488,19 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>156</v>
+        <v>335</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>19</v>
@@ -6535,7 +6549,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6553,10 +6567,10 @@
         <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>19</v>
@@ -6567,10 +6581,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6593,66 +6607,68 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="Q39" t="s" s="2">
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6667,16 +6683,16 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>351</v>
+        <v>19</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>354</v>
+        <v>19</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>19</v>
@@ -6684,10 +6700,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6704,59 +6720,55 @@
         <v>19</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>329</v>
+        <v>108</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q40" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q40" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>19</v>
       </c>
@@ -6773,7 +6785,7 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6788,16 +6800,16 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>19</v>
+        <v>358</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>19</v>
+        <v>360</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>19</v>
@@ -6805,48 +6817,52 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>19</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>178</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O41" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="P41" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q41" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N41" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
         <v>19</v>
       </c>
@@ -6866,13 +6882,13 @@
         <v>19</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>368</v>
+        <v>19</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>369</v>
+        <v>19</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>370</v>
+        <v>19</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>19</v>
@@ -6890,7 +6906,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6905,58 +6921,60 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>372</v>
+        <v>19</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>374</v>
+        <v>19</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>375</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>19</v>
+        <v>370</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>157</v>
+        <v>371</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -6981,13 +6999,13 @@
         <v>19</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>19</v>
+        <v>374</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>19</v>
+        <v>375</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>19</v>
+        <v>376</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>19</v>
@@ -7005,7 +7023,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>159</v>
+        <v>369</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7017,41 +7035,41 @@
         <v>19</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>19</v>
+        <v>378</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>160</v>
+        <v>379</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>19</v>
+        <v>380</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>19</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>19</v>
@@ -7063,17 +7081,15 @@
         <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>19</v>
@@ -7110,16 +7126,16 @@
         <v>19</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>166</v>
@@ -7128,13 +7144,13 @@
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>19</v>
@@ -7143,7 +7159,7 @@
         <v>19</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>19</v>
@@ -7154,14 +7170,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7177,23 +7193,21 @@
         <v>19</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>290</v>
+        <v>169</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>291</v>
+        <v>170</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>19</v>
       </c>
@@ -7229,19 +7243,19 @@
         <v>19</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>294</v>
+        <v>172</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7253,16 +7267,16 @@
         <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>295</v>
+        <v>19</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>296</v>
+        <v>167</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>19</v>
@@ -7273,10 +7287,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7287,7 +7301,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>19</v>
@@ -7296,19 +7310,23 @@
         <v>19</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>156</v>
+        <v>295</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>157</v>
+        <v>296</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>19</v>
       </c>
@@ -7356,28 +7374,28 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>159</v>
+        <v>300</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>19</v>
+        <v>301</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>160</v>
+        <v>302</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>19</v>
@@ -7388,21 +7406,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>19</v>
@@ -7414,17 +7432,15 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -7461,16 +7477,16 @@
         <v>19</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>166</v>
@@ -7479,13 +7495,13 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>19</v>
@@ -7494,7 +7510,7 @@
         <v>19</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>19</v>
@@ -7505,46 +7521,44 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>300</v>
+        <v>169</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>301</v>
+        <v>170</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>19</v>
       </c>
@@ -7580,40 +7594,40 @@
         <v>19</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>304</v>
+        <v>172</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>305</v>
+        <v>19</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>306</v>
+        <v>167</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>19</v>
@@ -7624,10 +7638,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7635,13 +7649,13 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>19</v>
@@ -7650,18 +7664,20 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="N48" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>19</v>
       </c>
@@ -7709,7 +7725,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7727,10 +7743,10 @@
         <v>19</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>19</v>
@@ -7741,10 +7757,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7752,13 +7768,13 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>19</v>
@@ -7767,18 +7783,18 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>317</v>
-      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>19</v>
       </c>
@@ -7826,7 +7842,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7844,10 +7860,10 @@
         <v>19</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>19</v>
@@ -7858,10 +7874,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7884,17 +7900,17 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>19</v>
@@ -7943,7 +7959,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7961,10 +7977,10 @@
         <v>19</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>19</v>
@@ -7975,10 +7991,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7986,13 +8002,13 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>19</v>
@@ -8001,19 +8017,17 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -8062,7 +8076,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8080,10 +8094,10 @@
         <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>19</v>
@@ -8094,10 +8108,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8120,19 +8134,19 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>156</v>
+        <v>335</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>19</v>
@@ -8181,7 +8195,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8199,10 +8213,10 @@
         <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>19</v>
@@ -8213,14 +8227,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>388</v>
+        <v>19</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8239,18 +8253,20 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>19</v>
       </c>
@@ -8274,13 +8290,13 @@
         <v>19</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>368</v>
+        <v>19</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>392</v>
+        <v>19</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>393</v>
+        <v>19</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>19</v>
@@ -8298,16 +8314,16 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>394</v>
+        <v>19</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>100</v>
@@ -8316,28 +8332,28 @@
         <v>19</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>375</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>19</v>
+        <v>394</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8356,18 +8372,18 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>400</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>19</v>
       </c>
@@ -8391,13 +8407,13 @@
         <v>19</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>19</v>
+        <v>374</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>19</v>
+        <v>398</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>19</v>
+        <v>399</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>19</v>
@@ -8415,16 +8431,16 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>19</v>
+        <v>400</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>100</v>
@@ -8433,16 +8449,16 @@
         <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>19</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" hidden="true">
@@ -8458,13 +8474,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>19</v>
@@ -8482,7 +8498,9 @@
         <v>405</v>
       </c>
       <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>19</v>
       </c>
@@ -8533,7 +8551,7 @@
         <v>402</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>88</v>
@@ -8545,41 +8563,41 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>406</v>
+        <v>19</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AM55" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="AN55" t="s" s="2">
-        <v>409</v>
+        <v>19</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>410</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>412</v>
+        <v>19</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>19</v>
@@ -8588,13 +8606,13 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8645,10 +8663,10 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>88</v>
@@ -8660,31 +8678,31 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AO56" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>420</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8703,13 +8721,13 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8760,7 +8778,7 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8775,31 +8793,31 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AO57" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>19</v>
+        <v>428</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8818,13 +8836,13 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8851,13 +8869,13 @@
         <v>19</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>368</v>
+        <v>19</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>435</v>
+        <v>19</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>436</v>
+        <v>19</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>19</v>
@@ -8875,7 +8893,7 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8890,31 +8908,31 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>19</v>
+        <v>432</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>19</v>
+        <v>433</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>19</v>
+        <v>435</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>440</v>
+        <v>19</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8933,13 +8951,13 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8966,13 +8984,13 @@
         <v>19</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>19</v>
+        <v>374</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>19</v>
+        <v>441</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>19</v>
+        <v>442</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>19</v>
@@ -8990,7 +9008,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9005,41 +9023,41 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>448</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>19</v>
@@ -9048,17 +9066,15 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -9107,7 +9123,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9122,41 +9138,41 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>19</v>
@@ -9165,16 +9181,16 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>178</v>
+        <v>457</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9200,13 +9216,13 @@
         <v>19</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>368</v>
+        <v>19</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>465</v>
+        <v>19</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>466</v>
+        <v>19</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>19</v>
@@ -9224,7 +9240,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9239,41 +9255,41 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>19</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>19</v>
@@ -9282,16 +9298,16 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>451</v>
+        <v>184</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9317,13 +9333,13 @@
         <v>19</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>19</v>
+        <v>374</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>19</v>
+        <v>471</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>19</v>
+        <v>472</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>19</v>
@@ -9341,13 +9357,13 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>19</v>
@@ -9356,16 +9372,16 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>19</v>
@@ -9373,24 +9389,24 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>19</v>
+        <v>478</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>19</v>
@@ -9399,15 +9415,17 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>178</v>
+        <v>457</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>19</v>
@@ -9432,13 +9450,13 @@
         <v>19</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>368</v>
+        <v>19</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>482</v>
+        <v>19</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>19</v>
@@ -9456,7 +9474,7 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9471,16 +9489,16 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>19</v>
+        <v>482</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>19</v>
+        <v>483</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>484</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>19</v>
@@ -9514,13 +9532,13 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9547,13 +9565,13 @@
         <v>19</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>19</v>
+        <v>374</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>19</v>
+        <v>488</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>19</v>
+        <v>489</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>19</v>
@@ -9592,10 +9610,10 @@
         <v>19</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>19</v>
@@ -9603,10 +9621,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9617,7 +9635,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>19</v>
@@ -9629,17 +9647,15 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>178</v>
+        <v>492</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>19</v>
@@ -9664,11 +9680,13 @@
         <v>19</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y65" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z65" t="s" s="2">
-        <v>494</v>
+        <v>19</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>19</v>
@@ -9686,7 +9704,7 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9701,16 +9719,16 @@
         <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="AL65" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>497</v>
-      </c>
       <c r="AN65" t="s" s="2">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>19</v>
@@ -9718,10 +9736,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9744,16 +9762,16 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>500</v>
+        <v>184</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9779,13 +9797,11 @@
         <v>19</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>19</v>
@@ -9803,7 +9819,7 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9818,16 +9834,16 @@
         <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>19</v>
@@ -9835,10 +9851,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9849,7 +9865,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>19</v>
@@ -9858,18 +9874,20 @@
         <v>19</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>19</v>
@@ -9918,7 +9936,7 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9933,16 +9951,16 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AM67" t="s" s="2">
-        <v>512</v>
-      </c>
       <c r="AN67" t="s" s="2">
-        <v>19</v>
+        <v>504</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>19</v>
@@ -9950,14 +9968,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>514</v>
+        <v>19</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9976,17 +9994,15 @@
         <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>518</v>
-      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>19</v>
@@ -10035,7 +10051,7 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10050,13 +10066,13 @@
         <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>19</v>
@@ -10067,42 +10083,42 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>19</v>
+        <v>520</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10152,7 +10168,7 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10167,13 +10183,13 @@
         <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>19</v>
+        <v>525</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>19</v>
@@ -10184,18 +10200,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>530</v>
+        <v>19</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>88</v>
@@ -10210,20 +10226,18 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>178</v>
+        <v>529</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="N70" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>534</v>
-      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>19</v>
       </c>
@@ -10247,13 +10261,13 @@
         <v>19</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>368</v>
+        <v>19</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>535</v>
+        <v>19</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>536</v>
+        <v>19</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>19</v>
@@ -10271,7 +10285,7 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10289,35 +10303,35 @@
         <v>19</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>538</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>19</v>
+        <v>536</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>89</v>
@@ -10326,19 +10340,23 @@
         <v>19</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O71" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>19</v>
       </c>
@@ -10362,13 +10380,13 @@
         <v>19</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>19</v>
+        <v>374</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>19</v>
+        <v>542</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>19</v>
@@ -10386,7 +10404,7 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10401,10 +10419,10 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>542</v>
+        <v>19</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>395</v>
+        <v>533</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>543</v>
@@ -10432,22 +10450,22 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>156</v>
+        <v>546</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>546</v>
+        <v>49</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>547</v>
@@ -10507,7 +10525,7 @@
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>19</v>
@@ -10516,27 +10534,27 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>19</v>
+        <v>548</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>19</v>
+        <v>550</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10547,7 +10565,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>19</v>
@@ -10556,20 +10574,18 @@
         <v>19</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>550</v>
+        <v>163</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N73" t="s" s="2">
         <v>553</v>
       </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>19</v>
@@ -10618,13 +10634,13 @@
         <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>19</v>
@@ -10633,23 +10649,140 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AM73" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AO73" t="s" s="2">
+      <c r="AM74" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AO74" t="s" s="2">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO73">
+  <autoFilter ref="A1:AO74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10659,7 +10792,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
